--- a/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,91%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>56,84; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>84,53; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>87,17; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>88,67; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>96,46; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>96,25; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>97,3; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>96,7; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>97,34; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>98,45; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>98,23; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>77,09; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>83,12; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>84,02; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>88,05; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>93,25; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>91,91; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,81%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>96,64; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>97,51; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>91,15; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>95,1; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,44</t>
+          <t>98,56; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>93,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>71,16; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>85,27; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>97,14; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>96,52; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>94,7; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>97,34; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>97,01; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>88,67; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>97,05; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>93,54; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>98,5; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>97,77; 100</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,47%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>95,75; 100</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>96,18; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>87,57; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>92,81; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>93,38; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>97,38; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>96,06; 100,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>95,99; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>94,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,45%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,71%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,73%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>95,99; 99,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>98,82; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>96,58; 99,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>97,33; 99,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>98,37; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>97,58; 99,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>99,08; 100,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>98,01; 99,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,64; 100</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,51; 100</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,56; 100</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B15-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,84; 100,0</t>
+          <t>65,61; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,53; 100,0</t>
+          <t>84,19; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,17; 100,0</t>
+          <t>84,5; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,14 +726,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,67; 100,0</t>
+          <t>89,28; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,09; 100,0</t>
+          <t>77,13; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,12; 100,0</t>
+          <t>87,5; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,02; 100,0</t>
+          <t>84,32; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,05; 100,0</t>
+          <t>87,18; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,25; 100,0</t>
+          <t>92,65; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,91; 100,0</t>
+          <t>92,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1041,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,15; 100,0</t>
+          <t>89,36; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,74; 100,0</t>
+          <t>95,06; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>71,16; 100,0</t>
+          <t>70,44; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,27; 100,0</t>
+          <t>84,23; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>88,67; 100,0</t>
+          <t>88,46; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1375,7 +1376,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,54; 100,0</t>
+          <t>92,71; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1465,17 +1466,17 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>87,57; 100,0</t>
+          <t>88,75; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>92,81; 100,0</t>
+          <t>92,26; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>93,38; 100,0</t>
+          <t>92,29; 100,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,17 +1486,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>96,06; 100,0</t>
+          <t>95,21; 100,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,99; 100,0</t>
+          <t>96,01; 100,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>94,74; 100,0</t>
+          <t>94,43; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>95,99; 99,56</t>
+          <t>95,24; 99,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>98,82; 100,0</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>96,58; 99,67</t>
+          <t>95,78; 99,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>97,33; 99,68</t>
+          <t>97,11; 99,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>98,83; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>98,37; 100,0</t>
+          <t>98,1; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>97,58; 99,5</t>
+          <t>97,38; 99,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>99,08; 100,0</t>
+          <t>99,07; 100,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,57</t>
+          <t>97,95; 99,68</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para bajar el colesterol fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24648</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20354</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20385</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27474</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25507</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30296</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52122</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45862</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7050; 10745</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22610; 24648</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18512; 20354</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18541; 20385</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25462; 27474</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22296; 26484</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26304; 31130</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50046; 52122</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41816; 46839</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32147</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62594</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51571</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>38709</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>77738</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>66585</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>70855</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>140333</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>118156</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30288; 32147</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>60377; 62594</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>49637; 51571</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36860; 38709</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75641; 77738</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64388; 66585</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68970; 70855</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>138163; 140333</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>116059; 118156</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23872</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32607</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36427</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27621</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41750</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>44872</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>51494</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74357</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81300</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19331; 25062</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29411; 33614</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32392; 38415</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25741; 27621</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39705; 41750</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42729; 44872</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45931; 52684</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>69828; 75364</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77050; 83288</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16362</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>39266</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>37035</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19081</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>51989</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47218</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35443</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>91254</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>84253</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14728; 16362</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37125; 39266</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35266; 37035</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17355; 19081</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>50077; 51989</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>43101; 48234</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33707; 35443</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>89221; 91254</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>81059; 85269</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13929</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29481</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25359</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12171</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>41372</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>28535</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26100</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>70853</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>53894</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10471; 14864</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27475; 29481</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23570; 25359</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10406; 12171</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>39396; 41372</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26660; 28535</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22771; 27035</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>68828; 70853</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52019; 53894</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13268</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>36040</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22142</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31031</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37535</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25158</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>44299</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>73576</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47300</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11478; 13268</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34129; 36040</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>20387; 22142</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>29122; 31031</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>35598; 37535</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>23163; 25158</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42375; 44299</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>71619; 73576</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>45376; 47300</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35190</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>69663</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>50334</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>47627</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>74404</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>45973</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>82816</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>144067</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>96307</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>33422; 35190</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>67579; 69663</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>48287; 50334</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>43718; 49420</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>72213; 74404</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43778; 45973</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>78444; 84609</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>141909; 144067</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>94161; 96307</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>43011</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>54816</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>63613</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>67478</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>81183</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>88426</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>110489</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>135999</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>152040</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>41184; 43011</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>52719; 54816</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>58555; 65980</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>63054; 68345</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>75914; 82260</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>86106; 88426</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>106019; 111356</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>131603; 137076</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>145808; 154407</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>187689</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>349115</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>306836</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>264102</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>433446</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>372275</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>451793</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>782561</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>679110</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>181581; 189808</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>345036; 350122</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>298069; 309831</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>259058; 265905</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>429140; 434523</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>367144; 374268</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>445413; 454825</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>777349; 784644</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>671390; 683254</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>